--- a/spliced/walkingToRunning/2023-03-27_19-42-09/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-42-09/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.532178590172217</v>
+        <v>-2.288097732945488</v>
       </c>
       <c r="B2" t="n">
-        <v>-16.01636389682171</v>
+        <v>-4.339917659759537</v>
       </c>
       <c r="C2" t="n">
-        <v>6.974593714663866</v>
+        <v>-3.936509232772027</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.63299742497886</v>
+        <v>-3.323771476745605</v>
       </c>
       <c r="B3" t="n">
-        <v>-9.195889523154877</v>
+        <v>-0.8808293342590332</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.14407699986499</v>
+        <v>-3.401906013488769</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-14.47936531117094</v>
+        <v>-5.066901056390067</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.6024172117835604</v>
+        <v>1.504574901179274</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.01582479476932</v>
+        <v>-3.703831045251145</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.626747369766244</v>
+        <v>-4.698070149672659</v>
       </c>
       <c r="B5" t="n">
-        <v>-8.822486783328847</v>
+        <v>-0.4452685556913691</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.710294397253755</v>
+        <v>-8.655812690132544</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.4268563170182262</v>
+        <v>-6.691070581737309</v>
       </c>
       <c r="B6" t="n">
-        <v>-7.612172829477366</v>
+        <v>-6.563599611583482</v>
       </c>
       <c r="C6" t="n">
-        <v>6.265647787796897</v>
+        <v>-8.057312513652606</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.09527274181970302</v>
+        <v>-4.573285604778092</v>
       </c>
       <c r="B7" t="n">
-        <v>5.863329686616582</v>
+        <v>-17.30385228207236</v>
       </c>
       <c r="C7" t="n">
-        <v>12.21953241448658</v>
+        <v>12.64209365844724</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.31707101119181</v>
+        <v>-1.509485269847658</v>
       </c>
       <c r="B8" t="n">
-        <v>-16.11775568911882</v>
+        <v>-5.039251478094737</v>
       </c>
       <c r="C8" t="n">
-        <v>2.399655392295399</v>
+        <v>6.722280000385433</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>23.51702158074626</v>
+        <v>-1.532178590172217</v>
       </c>
       <c r="B9" t="n">
-        <v>-39.05408849214243</v>
+        <v>-16.01636389682171</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.4082389630769931</v>
+        <v>6.974593714663866</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-2.529885241859907</v>
+        <v>-22.63299742497886</v>
       </c>
       <c r="B10" t="n">
-        <v>6.300281524658134</v>
+        <v>-9.195889523154877</v>
       </c>
       <c r="C10" t="n">
-        <v>-23.18308167708546</v>
+        <v>-11.14407699986499</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-4.514081553409033</v>
+        <v>-14.47936531117094</v>
       </c>
       <c r="B11" t="n">
-        <v>-21.8527907321327</v>
+        <v>-0.6024172117835604</v>
       </c>
       <c r="C11" t="n">
-        <v>-10.32276263989904</v>
+        <v>-11.01582479476932</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>38.92504751054884</v>
+        <v>-1.626747369766244</v>
       </c>
       <c r="B12" t="n">
-        <v>-55.46849928404185</v>
+        <v>-8.822486783328847</v>
       </c>
       <c r="C12" t="n">
-        <v>19.13083159296148</v>
+        <v>-5.710294397253755</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.858730956127765</v>
+        <v>0.4268563170182262</v>
       </c>
       <c r="B13" t="n">
-        <v>6.065660225717632</v>
+        <v>-7.612172829477366</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.580752749192068</v>
+        <v>6.265647787796897</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.288362201891221</v>
+        <v>0.09527274181970302</v>
       </c>
       <c r="B14" t="n">
-        <v>-18.18445829341276</v>
+        <v>5.863329686616582</v>
       </c>
       <c r="C14" t="n">
-        <v>32.30573925219061</v>
+        <v>12.21953241448658</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-47.11073684692383</v>
+        <v>8.31707101119181</v>
       </c>
       <c r="B15" t="n">
-        <v>3.437827825546265</v>
+        <v>-16.11775568911882</v>
       </c>
       <c r="C15" t="n">
-        <v>-20.08368492126465</v>
+        <v>2.399655392295399</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-15.004909515381</v>
+        <v>23.51702158074626</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.142799942116968</v>
+        <v>-39.05408849214243</v>
       </c>
       <c r="C16" t="n">
-        <v>-13.80460448014111</v>
+        <v>-0.4082389630769931</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-7.653207327190201</v>
+        <v>-2.529885241859907</v>
       </c>
       <c r="B17" t="n">
-        <v>-6.902720802708673</v>
+        <v>6.300281524658134</v>
       </c>
       <c r="C17" t="n">
-        <v>-9.241878660101641</v>
+        <v>-23.18308167708546</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-5.410418410050235</v>
+        <v>-4.514081553409033</v>
       </c>
       <c r="B18" t="n">
-        <v>5.482645586917334</v>
+        <v>-21.8527907321327</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0306391966970736</v>
+        <v>-10.32276263989904</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-5.049034394715962</v>
+        <v>38.92504751054884</v>
       </c>
       <c r="B19" t="n">
-        <v>8.959014641611201</v>
+        <v>-55.46849928404185</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3938065077129187</v>
+        <v>19.13083159296148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9.533257911079737</v>
+        <v>-2.858730956127765</v>
       </c>
       <c r="B20" t="n">
-        <v>-10.20816908384616</v>
+        <v>6.065660225717632</v>
       </c>
       <c r="C20" t="n">
-        <v>3.8682978278712</v>
+        <v>-1.580752749192068</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>3.288362201891221</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-18.18445829341276</v>
+      </c>
+      <c r="C21" t="n">
+        <v>32.30573925219061</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-47.11073684692383</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.437827825546265</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-20.08368492126465</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-15.004909515381</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-1.142799942116968</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-13.80460448014111</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-7.653207327190201</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-6.902720802708673</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-9.241878660101641</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-5.410418410050235</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5.482645586917334</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0306391966970736</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-5.049034394715962</v>
+      </c>
+      <c r="B26" t="n">
+        <v>8.959014641611201</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.3938065077129187</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>9.533257911079737</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-10.20816908384616</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.8682978278712</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
         <v>18.57404869481136</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B28" t="n">
         <v>-1.860518957439254</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C28" t="n">
         <v>-7.277912340666091</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-3.77490947121079</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-6.046053083319467</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-15.12075865896126</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3.047089124980793</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-31.00068785014912</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.002202786897417</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7.431886748263759</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-15.14435035304032</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.078887035972246</v>
       </c>
     </row>
   </sheetData>
